--- a/HV_GUI2CRATE_COVERSION.xlsx
+++ b/HV_GUI2CRATE_COVERSION.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r2m2u\OneDrive\Documents\JLab\CDet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaubt/Desktop/CDet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CE50F8-2B1E-4A35-A122-6396AB2A7B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E589D3C9-4A66-B045-8B52-5B1CA4408B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52AF6CCE-5EF8-4E2F-87E6-8D8A87F4008C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="3" xr2:uid="{52AF6CCE-5EF8-4E2F-87E6-8D8A87F4008C}"/>
   </bookViews>
   <sheets>
     <sheet name="CDET L1 Left" sheetId="1" r:id="rId1"/>
     <sheet name="CDET L1 Right" sheetId="2" r:id="rId2"/>
     <sheet name="CDET L2 Left" sheetId="3" r:id="rId3"/>
     <sheet name="CDET L2 Right" sheetId="4" r:id="rId4"/>
+    <sheet name="side by side" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="178">
   <si>
     <t>LABEL</t>
   </si>
@@ -188,9 +189,6 @@
     <t>CDET_1L38</t>
   </si>
   <si>
-    <t>HV GUI TAB FORMAT</t>
-  </si>
-  <si>
     <t>CDET_1R0</t>
   </si>
   <si>
@@ -567,13 +565,22 @@
   </si>
   <si>
     <t>CDET_2R41</t>
+  </si>
+  <si>
+    <t>HV Label &amp; Settings</t>
+  </si>
+  <si>
+    <t>V_set (V)</t>
+  </si>
+  <si>
+    <t>HV Crate Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +604,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -612,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -640,17 +662,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -989,131 +1055,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50185E8-33B5-46BE-A469-AACAACEFE243}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3">
         <f>F7+1</f>
         <v>5</v>
@@ -1121,15 +1197,16 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3">
         <f t="shared" ref="F9:F16" si="0">F8+1</f>
         <v>6</v>
@@ -1137,15 +1214,16 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1153,15 +1231,16 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1169,15 +1248,16 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1185,15 +1265,16 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1201,15 +1282,16 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1217,15 +1299,16 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1233,15 +1316,16 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1249,90 +1333,96 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3">
         <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3">
         <f>F21+1</f>
         <v>5</v>
@@ -1340,15 +1430,16 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F30" si="1">F22+1</f>
         <v>6</v>
@@ -1356,15 +1447,16 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1372,15 +1464,16 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1388,15 +1481,16 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1404,15 +1498,16 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1420,15 +1515,16 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1436,15 +1532,16 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1452,15 +1549,16 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1468,90 +1566,96 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>2</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3">
         <v>2</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3">
         <v>3</v>
       </c>
       <c r="G34" s="3">
         <v>2</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3">
         <v>4</v>
       </c>
       <c r="G35" s="3">
         <v>2</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3">
         <f>F35+1</f>
         <v>5</v>
@@ -1559,15 +1663,16 @@
       <c r="G36" s="3">
         <v>2</v>
       </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3">
         <f t="shared" ref="F37:F44" si="2">F36+1</f>
         <v>6</v>
@@ -1575,15 +1680,16 @@
       <c r="G37" s="3">
         <v>2</v>
       </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1591,15 +1697,16 @@
       <c r="G38" s="3">
         <v>2</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1607,15 +1714,16 @@
       <c r="G39" s="3">
         <v>2</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1623,15 +1731,16 @@
       <c r="G40" s="3">
         <v>2</v>
       </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1639,15 +1748,16 @@
       <c r="G41" s="3">
         <v>2</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1655,15 +1765,16 @@
       <c r="G42" s="3">
         <v>2</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1671,15 +1782,16 @@
       <c r="G43" s="3">
         <v>2</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1687,143 +1799,177 @@
       <c r="G44" s="3">
         <v>2</v>
       </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D84CF16-7F01-40B0-B872-03B1350C9082}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3">
         <f>F7+1</f>
         <v>5</v>
@@ -1831,15 +1977,19 @@
       <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3">
         <f t="shared" ref="F9:F16" si="0">F8+1</f>
         <v>6</v>
@@ -1847,15 +1997,19 @@
       <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1863,15 +2017,19 @@
       <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1879,15 +2037,19 @@
       <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1895,15 +2057,19 @@
       <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1911,15 +2077,19 @@
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1927,15 +2097,19 @@
       <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1943,15 +2117,19 @@
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1959,90 +2137,114 @@
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3">
         <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>4</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3">
         <f>F21+1</f>
         <v>5</v>
@@ -2050,15 +2252,19 @@
       <c r="G22" s="3">
         <v>4</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F30" si="1">F22+1</f>
         <v>6</v>
@@ -2066,15 +2272,19 @@
       <c r="G23" s="3">
         <v>4</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2082,15 +2292,19 @@
       <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2098,15 +2312,19 @@
       <c r="G25" s="3">
         <v>4</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2114,15 +2332,19 @@
       <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2130,15 +2352,19 @@
       <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2146,15 +2372,19 @@
       <c r="G28" s="3">
         <v>4</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2162,15 +2392,19 @@
       <c r="G29" s="3">
         <v>4</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2178,90 +2412,114 @@
       <c r="G30" s="3">
         <v>4</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>5</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>5</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3">
         <v>3</v>
       </c>
       <c r="G34" s="3">
         <v>5</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3">
         <v>4</v>
       </c>
       <c r="G35" s="3">
         <v>5</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3">
         <f>F35+1</f>
         <v>5</v>
@@ -2269,15 +2527,19 @@
       <c r="G36" s="3">
         <v>5</v>
       </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3">
         <f t="shared" ref="F37:F44" si="2">F36+1</f>
         <v>6</v>
@@ -2285,15 +2547,19 @@
       <c r="G37" s="3">
         <v>5</v>
       </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2301,15 +2567,19 @@
       <c r="G38" s="3">
         <v>5</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2317,15 +2587,19 @@
       <c r="G39" s="3">
         <v>5</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2333,15 +2607,19 @@
       <c r="G40" s="3">
         <v>5</v>
       </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2349,15 +2627,19 @@
       <c r="G41" s="3">
         <v>5</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2365,15 +2647,19 @@
       <c r="G42" s="3">
         <v>5</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2381,15 +2667,19 @@
       <c r="G43" s="3">
         <v>5</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2397,143 +2687,204 @@
       <c r="G44" s="3">
         <v>5</v>
       </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B54B1C-9226-4D27-BB09-D689165B4307}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection sqref="A1:H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3">
         <f>F7+1</f>
         <v>5</v>
@@ -2541,15 +2892,17 @@
       <c r="G8" s="3">
         <v>6</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3">
         <f t="shared" ref="F9:F16" si="0">F8+1</f>
         <v>6</v>
@@ -2557,15 +2910,17 @@
       <c r="G9" s="3">
         <v>6</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2573,15 +2928,17 @@
       <c r="G10" s="3">
         <v>6</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2589,15 +2946,17 @@
       <c r="G11" s="3">
         <v>6</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2605,15 +2964,17 @@
       <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2621,15 +2982,17 @@
       <c r="G13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2637,15 +3000,17 @@
       <c r="G14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2653,15 +3018,17 @@
       <c r="G15" s="3">
         <v>6</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2669,90 +3036,102 @@
       <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>7</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>7</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3">
         <v>7</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3">
         <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>7</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>7</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3">
         <f>F21+1</f>
         <v>5</v>
@@ -2760,15 +3139,17 @@
       <c r="G22" s="3">
         <v>7</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F30" si="1">F22+1</f>
         <v>6</v>
@@ -2776,15 +3157,17 @@
       <c r="G23" s="3">
         <v>7</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2792,15 +3175,17 @@
       <c r="G24" s="3">
         <v>7</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2808,15 +3193,17 @@
       <c r="G25" s="3">
         <v>7</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2824,15 +3211,17 @@
       <c r="G26" s="3">
         <v>7</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2840,15 +3229,17 @@
       <c r="G27" s="3">
         <v>7</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2856,15 +3247,17 @@
       <c r="G28" s="3">
         <v>7</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2872,15 +3265,17 @@
       <c r="G29" s="3">
         <v>7</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2888,90 +3283,102 @@
       <c r="G30" s="3">
         <v>7</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>8</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>8</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3">
         <v>8</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3">
         <v>3</v>
       </c>
       <c r="G34" s="3">
         <v>8</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3">
         <v>4</v>
       </c>
       <c r="G35" s="3">
         <v>8</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3">
         <f>F35+1</f>
         <v>5</v>
@@ -2979,15 +3386,17 @@
       <c r="G36" s="3">
         <v>8</v>
       </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3">
         <f t="shared" ref="F37:F44" si="2">F36+1</f>
         <v>6</v>
@@ -2995,15 +3404,17 @@
       <c r="G37" s="3">
         <v>8</v>
       </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3011,15 +3422,17 @@
       <c r="G38" s="3">
         <v>8</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3027,15 +3440,17 @@
       <c r="G39" s="3">
         <v>8</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3043,15 +3458,17 @@
       <c r="G40" s="3">
         <v>8</v>
       </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3059,15 +3476,17 @@
       <c r="G41" s="3">
         <v>8</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3075,15 +3494,17 @@
       <c r="G42" s="3">
         <v>8</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3091,15 +3512,17 @@
       <c r="G43" s="3">
         <v>8</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3107,143 +3530,203 @@
       <c r="G44" s="3">
         <v>8</v>
       </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C9D2DC-C068-4BBD-AD00-0D377786E0D9}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>9</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>9</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>9</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>9</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="3">
         <v>9</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3">
         <f>F7+1</f>
         <v>5</v>
@@ -3251,15 +3734,18 @@
       <c r="G8" s="3">
         <v>9</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3">
         <f t="shared" ref="F9:F16" si="0">F8+1</f>
         <v>6</v>
@@ -3267,15 +3753,18 @@
       <c r="G9" s="3">
         <v>9</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3283,15 +3772,18 @@
       <c r="G10" s="3">
         <v>9</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3299,15 +3791,18 @@
       <c r="G11" s="3">
         <v>9</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3315,15 +3810,18 @@
       <c r="G12" s="3">
         <v>9</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3331,15 +3829,18 @@
       <c r="G13" s="3">
         <v>9</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3347,15 +3848,18 @@
       <c r="G14" s="3">
         <v>9</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3363,15 +3867,18 @@
       <c r="G15" s="3">
         <v>9</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3379,90 +3886,108 @@
       <c r="G16" s="3">
         <v>9</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>10</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3">
         <v>10</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3">
         <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>10</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3">
         <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>10</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3">
         <f>F21+1</f>
         <v>5</v>
@@ -3470,15 +3995,18 @@
       <c r="G22" s="3">
         <v>10</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F30" si="1">F22+1</f>
         <v>6</v>
@@ -3486,15 +4014,18 @@
       <c r="G23" s="3">
         <v>10</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3502,15 +4033,18 @@
       <c r="G24" s="3">
         <v>10</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3518,15 +4052,18 @@
       <c r="G25" s="3">
         <v>10</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3534,15 +4071,18 @@
       <c r="G26" s="3">
         <v>10</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3550,15 +4090,18 @@
       <c r="G27" s="3">
         <v>10</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3566,15 +4109,18 @@
       <c r="G28" s="3">
         <v>10</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3582,15 +4128,18 @@
       <c r="G29" s="3">
         <v>10</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3598,90 +4147,108 @@
       <c r="G30" s="3">
         <v>10</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>11</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>11</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3">
         <v>11</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3">
         <v>3</v>
       </c>
       <c r="G34" s="3">
         <v>11</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3">
         <v>4</v>
       </c>
       <c r="G35" s="3">
         <v>11</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3">
         <f>F35+1</f>
         <v>5</v>
@@ -3689,15 +4256,18 @@
       <c r="G36" s="3">
         <v>11</v>
       </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3">
         <f t="shared" ref="F37:F44" si="2">F36+1</f>
         <v>6</v>
@@ -3705,15 +4275,18 @@
       <c r="G37" s="3">
         <v>11</v>
       </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3721,15 +4294,18 @@
       <c r="G38" s="3">
         <v>11</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3737,15 +4313,18 @@
       <c r="G39" s="3">
         <v>11</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3753,15 +4332,18 @@
       <c r="G40" s="3">
         <v>11</v>
       </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3769,15 +4351,18 @@
       <c r="G41" s="3">
         <v>11</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3785,15 +4370,18 @@
       <c r="G42" s="3">
         <v>11</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3801,15 +4389,18 @@
       <c r="G43" s="3">
         <v>11</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3817,10 +4408,2136 @@
       <c r="G44" s="3">
         <v>11</v>
       </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D4DC8-B506-BD40-BEC4-01193A26D156}">
+  <dimension ref="B2:U46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="13"/>
+    <col min="11" max="11" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>9</v>
+      </c>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>9</v>
+      </c>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="3">
+        <v>2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>9</v>
+      </c>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="3">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>9</v>
+      </c>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="3">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="3">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>9</v>
+      </c>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2">
+        <f>D8+1</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3">
+        <f>I8+1</f>
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="3">
+        <f>N8+1</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="3">
+        <f>S8+1</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
+        <v>9</v>
+      </c>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D17" si="0">D9+1</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I17" si="1">I9+1</f>
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N17" si="2">N9+1</f>
+        <v>6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="3">
+        <f t="shared" ref="S10:S17" si="3">S9+1</f>
+        <v>6</v>
+      </c>
+      <c r="T10" s="3">
+        <v>9</v>
+      </c>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T11" s="3">
+        <v>9</v>
+      </c>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
+        <v>9</v>
+      </c>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="3">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T13" s="3">
+        <v>9</v>
+      </c>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>9</v>
+      </c>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="T15" s="3">
+        <v>9</v>
+      </c>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O16" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="T16" s="3">
+        <v>9</v>
+      </c>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="3">
+        <v>9</v>
+      </c>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>10</v>
+      </c>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>10</v>
+      </c>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="3">
+        <v>2</v>
+      </c>
+      <c r="T20" s="3">
+        <v>10</v>
+      </c>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="3">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>10</v>
+      </c>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="3">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="3">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>10</v>
+      </c>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2">
+        <f>D22+1</f>
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3">
+        <f>I22+1</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="3">
+        <f>N22+1</f>
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="3">
+        <f>S22+1</f>
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
+        <v>10</v>
+      </c>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D31" si="4">D23+1</f>
+        <v>6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24:I31" si="5">I23+1</f>
+        <v>6</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="3">
+        <f t="shared" ref="N24:N31" si="6">N23+1</f>
+        <v>6</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="3">
+        <f t="shared" ref="S24:S31" si="7">S23+1</f>
+        <v>6</v>
+      </c>
+      <c r="T24" s="3">
+        <v>10</v>
+      </c>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="O25" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R25" s="7"/>
+      <c r="S25" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T25" s="3">
+        <v>10</v>
+      </c>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="3">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
+        <v>10</v>
+      </c>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O27" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="R27" s="7"/>
+      <c r="S27" s="3">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="T27" s="3">
+        <v>10</v>
+      </c>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O28" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="T28" s="3">
+        <v>10</v>
+      </c>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="3">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O29" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="3">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="T29" s="3">
+        <v>10</v>
+      </c>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="3">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O30" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="T30" s="3">
+        <v>10</v>
+      </c>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O31" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="3">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="T31" s="3">
+        <v>10</v>
+      </c>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>11</v>
+      </c>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="3">
+        <v>1</v>
+      </c>
+      <c r="T33" s="3">
+        <v>11</v>
+      </c>
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="3">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3">
+        <v>5</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="3">
+        <v>2</v>
+      </c>
+      <c r="T34" s="3">
+        <v>11</v>
+      </c>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="3">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="R35" s="7"/>
+      <c r="S35" s="3">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
+        <v>11</v>
+      </c>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="3">
+        <v>4</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="3">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="3">
+        <v>4</v>
+      </c>
+      <c r="T36" s="3">
+        <v>11</v>
+      </c>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2">
+        <f>D36+1</f>
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="3">
+        <f>I36+1</f>
+        <v>5</v>
+      </c>
+      <c r="J37" s="3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="3">
+        <f>N36+1</f>
+        <v>5</v>
+      </c>
+      <c r="O37" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="3">
+        <f>S36+1</f>
+        <v>5</v>
+      </c>
+      <c r="T37" s="3">
+        <v>11</v>
+      </c>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38:D45" si="8">D37+1</f>
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="3">
+        <f t="shared" ref="I38:I45" si="9">I37+1</f>
+        <v>6</v>
+      </c>
+      <c r="J38" s="3">
+        <v>5</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="3">
+        <f t="shared" ref="N38:N45" si="10">N37+1</f>
+        <v>6</v>
+      </c>
+      <c r="O38" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="R38" s="7"/>
+      <c r="S38" s="3">
+        <f t="shared" ref="S38:S45" si="11">S37+1</f>
+        <v>6</v>
+      </c>
+      <c r="T38" s="3">
+        <v>11</v>
+      </c>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="3">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="3">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="O39" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="3">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="T39" s="3">
+        <v>11</v>
+      </c>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="3">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="3">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="O40" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R40" s="7"/>
+      <c r="S40" s="3">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="T40" s="3">
+        <v>11</v>
+      </c>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="3">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="O41" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="3">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="T41" s="3">
+        <v>11</v>
+      </c>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="O42" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="R42" s="7"/>
+      <c r="S42" s="3">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="T42" s="3">
+        <v>11</v>
+      </c>
+      <c r="U42" s="9"/>
+    </row>
+    <row r="43" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="3">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="3">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="O43" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="R43" s="7"/>
+      <c r="S43" s="3">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="T43" s="3">
+        <v>11</v>
+      </c>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="3">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="3">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="O44" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="3">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="T44" s="3">
+        <v>11</v>
+      </c>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="2:21" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="3">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="3">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="O45" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="R45" s="7"/>
+      <c r="S45" s="3">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="T45" s="3">
+        <v>11</v>
+      </c>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="2:21" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>